--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\QALegendBilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970F95D5-100A-483D-88A8-F715D0783E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1AB566-DE20-4E35-A79A-D9B09FB6A04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Password</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t xml:space="preserve">Role </t>
+  </si>
+  <si>
+    <t>expError Message</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
   </si>
 </sst>
 </file>
@@ -530,16 +536,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F882D44-983B-4C66-984F-DF7AE6C39373}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -612,6 +618,14 @@
       </c>
       <c r="B9">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
